--- a/biology/Médecine/Tendinite_de_la_patte_d'oie/Tendinite_de_la_patte_d'oie.xlsx
+++ b/biology/Médecine/Tendinite_de_la_patte_d'oie/Tendinite_de_la_patte_d'oie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tendinite_de_la_patte_d%27oie</t>
+          <t>Tendinite_de_la_patte_d'oie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tendinite de la patte d'oie est une inflammation des trois tendons des muscles constituant la « patte d'oie » situés à la partie supéro-interne du tibia.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tendinite_de_la_patte_d%27oie</t>
+          <t>Tendinite_de_la_patte_d'oie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rappels anatomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles de la patte d'oie sont les muscles associés aux trois tendons qui s’accrochent à l’intérieur du genou à la manière d’une « patte d’oie ». Ces trois  muscles sont tendus le long de la cuisse : le muscle sartorius, le muscle gracile et le semi-tendineux. Ils stabilisent le genou en flexion, dans les côtes et les descentes. Le remarquable de la patte d'oie réside dans le fait que les trois muscles précédemment cités proviennent de trois loges différentes et sont innervés par trois nerfs différents.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tendinite_de_la_patte_d%27oie</t>
+          <t>Tendinite_de_la_patte_d'oie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Terrain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'observe :
 lors des sports d’impulsions : tennis, saut en hauteur, danse, football… mais aussi chez le cycliste ;
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tendinite_de_la_patte_d%27oie</t>
+          <t>Tendinite_de_la_patte_d'oie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le diagnostic est clinique :
 À l’interrogatoire la douleur siège en haut et en dedans du tibia et peut irradier le long de la jambe. Elle s’accentue pendant l’exercice, dans les escaliers et se poursuit parfois la nuit.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tendinite_de_la_patte_d%27oie</t>
+          <t>Tendinite_de_la_patte_d'oie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les examens complémentaires servent à éliminer d’autres causes de douleurs internes :
 La radiographie standard élimine une atteinte arthrosique interne.
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tendinite_de_la_patte_d%27oie</t>
+          <t>Tendinite_de_la_patte_d'oie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le traitement est essentiellement médical : 
 La principale mesure est l’arrêt du geste responsable de la sollicitation excessive de la patte d’oie. Ce repos sera d'une durée de 30 à 45 jours, pour permettre la disparition de l’inflammation. La reprise est autorisée lorsque les trois tests, palpation, étirement, contraction contrariée, sont indolores. Chez le sportif un remplacement provisoire d’activité peut être proposé.
